--- a/public/nurseUpload.xlsx
+++ b/public/nurseUpload.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\공석화\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Solo_Project\next-duty\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DA707C-1C5E-4651-A994-17D20D1C6093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1E0F92-782F-4414-9F15-7C66DBE18573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="1485" windowWidth="28770" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="3510" windowWidth="28770" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t>상태</t>
   </si>
@@ -160,10 +160,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>``</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>간호사4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -174,6 +170,21 @@
   <si>
     <t>X</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>간호사17</t>
+  </si>
+  <si>
+    <t>간호사18</t>
+  </si>
+  <si>
+    <t>간호사19</t>
+  </si>
+  <si>
+    <t>간호사20</t>
+  </si>
+  <si>
+    <t>간호사21</t>
   </si>
 </sst>
 </file>
@@ -552,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -604,12 +615,6 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
@@ -620,13 +625,13 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -636,12 +641,6 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
       <c r="E3" t="s">
         <v>26</v>
       </c>
@@ -652,7 +651,7 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -668,12 +667,6 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
@@ -684,7 +677,7 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -697,14 +690,8 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -713,7 +700,7 @@
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -726,12 +713,6 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
       <c r="E6" t="s">
         <v>28</v>
       </c>
@@ -742,7 +723,7 @@
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -755,12 +736,6 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
       <c r="E7" t="s">
         <v>29</v>
       </c>
@@ -771,7 +746,7 @@
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -784,12 +759,6 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
       <c r="E8" t="s">
         <v>30</v>
       </c>
@@ -800,7 +769,7 @@
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -813,12 +782,6 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
       <c r="E9" t="s">
         <v>31</v>
       </c>
@@ -829,7 +792,7 @@
         <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -842,12 +805,6 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
       <c r="E10" t="s">
         <v>32</v>
       </c>
@@ -858,7 +815,7 @@
         <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -871,12 +828,6 @@
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
       <c r="E11" t="s">
         <v>33</v>
       </c>
@@ -887,7 +838,7 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -900,12 +851,6 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
       <c r="E12" t="s">
         <v>34</v>
       </c>
@@ -916,7 +861,7 @@
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
@@ -929,12 +874,6 @@
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
       <c r="E13" t="s">
         <v>35</v>
       </c>
@@ -945,7 +884,7 @@
         <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
@@ -958,12 +897,6 @@
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
       <c r="E14" t="s">
         <v>36</v>
       </c>
@@ -974,7 +907,7 @@
         <v>21</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -987,12 +920,6 @@
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
       <c r="E15" t="s">
         <v>37</v>
       </c>
@@ -1003,7 +930,7 @@
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -1016,12 +943,6 @@
       <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" t="s">
-        <v>43</v>
-      </c>
       <c r="E16" t="s">
         <v>38</v>
       </c>
@@ -1032,7 +953,7 @@
         <v>23</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -1045,12 +966,6 @@
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s">
-        <v>43</v>
-      </c>
       <c r="E17" t="s">
         <v>39</v>
       </c>
@@ -1061,9 +976,124 @@
         <v>24</v>
       </c>
       <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
         <v>46</v>
       </c>
-      <c r="I17" t="b">
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="b">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" t="b">
         <v>1</v>
       </c>
     </row>
